--- a/example_data/EMA/label_corrected/cetrotide-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cetrotide-epar-product-information_en.xlsx
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
